--- a/aegis_publication/ch_electricity_ags_low.xlsx
+++ b/aegis_publication/ch_electricity_ags_low.xlsx
@@ -16,52 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1141 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1147 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1149 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1150 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1152 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1156 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1160 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_BAU_AGS 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1141 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1147 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1149 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1150 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1152 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1156 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1160 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_BAU_AGS 2025-05-12')</t>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1141 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1147 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1149 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1150 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1152 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1156 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1160 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_BAU_AGS 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1141 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1147 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1149 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1150 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1152 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1156 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1160 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, low voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_BAU_AGS 2025-05-13')</t>
   </si>
   <si>
     <t>('IPCC 2021', 'climate change', 'global warming potential (GWP100)')</t>
@@ -501,52 +501,52 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.03378024300034874</v>
+        <v>0.03377614802004025</v>
       </c>
       <c r="C2">
-        <v>0.03436305966095161</v>
+        <v>0.03338715079104039</v>
       </c>
       <c r="D2">
-        <v>0.03459773237718201</v>
+        <v>0.03261952056347282</v>
       </c>
       <c r="E2">
-        <v>0.0349137929856854</v>
+        <v>0.03227483465750013</v>
       </c>
       <c r="F2">
-        <v>0.03593649755850458</v>
+        <v>0.03157915285573692</v>
       </c>
       <c r="G2">
-        <v>0.03636939572223661</v>
+        <v>0.03043616675023165</v>
       </c>
       <c r="H2">
-        <v>0.0370134511819751</v>
+        <v>0.02970275084460683</v>
       </c>
       <c r="I2">
-        <v>0.1557868155480158</v>
+        <v>0.1557018802463515</v>
       </c>
       <c r="J2">
-        <v>0.02602715311198969</v>
+        <v>0.02602407643975227</v>
       </c>
       <c r="K2">
-        <v>0.02644616734641101</v>
+        <v>0.02572404326739312</v>
       </c>
       <c r="L2">
-        <v>0.02662727833507151</v>
+        <v>0.02516354298430342</v>
       </c>
       <c r="M2">
-        <v>0.02685798313173533</v>
+        <v>0.02490536155222725</v>
       </c>
       <c r="N2">
-        <v>0.02765918815183972</v>
+        <v>0.02443506261832357</v>
       </c>
       <c r="O2">
-        <v>0.02807483065059267</v>
+        <v>0.0236844920684917</v>
       </c>
       <c r="P2">
-        <v>0.02860684386929365</v>
+        <v>0.02319711040346307</v>
       </c>
       <c r="Q2">
-        <v>0.147129500915377</v>
+        <v>0.1470657838982972</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -554,52 +554,52 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0005425173902815872</v>
+        <v>0.000542501402765636</v>
       </c>
       <c r="C3">
-        <v>0.0005445228669522634</v>
+        <v>0.0005401897161155731</v>
       </c>
       <c r="D3">
-        <v>0.0005431379755347266</v>
+        <v>0.0005343538466056955</v>
       </c>
       <c r="E3">
-        <v>0.0005431021967243742</v>
+        <v>0.0005313845766965613</v>
       </c>
       <c r="F3">
-        <v>0.000542720276732481</v>
+        <v>0.0005233783005317562</v>
       </c>
       <c r="G3">
-        <v>0.0005367291236041577</v>
+        <v>0.0005104067491103404</v>
       </c>
       <c r="H3">
-        <v>0.0005337655290607707</v>
+        <v>0.0005013457579196661</v>
       </c>
       <c r="I3">
-        <v>0.00045918517088549</v>
+        <v>0.0004588260632276269</v>
       </c>
       <c r="J3">
-        <v>0.0005328600730347664</v>
+        <v>0.0005328458362700546</v>
       </c>
       <c r="K3">
-        <v>0.0005347624817413164</v>
+        <v>0.0005308237862257158</v>
       </c>
       <c r="L3">
-        <v>0.0005331423888220678</v>
+        <v>0.0005251578374321127</v>
       </c>
       <c r="M3">
-        <v>0.0005329390339853543</v>
+        <v>0.0005222880638089936</v>
       </c>
       <c r="N3">
-        <v>0.0005321459147564989</v>
+        <v>0.000514565088860426</v>
       </c>
       <c r="O3">
-        <v>0.0005257876676627469</v>
+        <v>0.0005018637387165743</v>
       </c>
       <c r="P3">
-        <v>0.0005226744982518791</v>
+        <v>0.0004932097139563666</v>
       </c>
       <c r="Q3">
-        <v>0.0004596945968397476</v>
+        <v>0.0004593682234299526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,52 +607,52 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.7815748824118238</v>
+        <v>0.781547388325558</v>
       </c>
       <c r="C4">
-        <v>0.801479475539825</v>
+        <v>0.7830580741392101</v>
       </c>
       <c r="D4">
-        <v>0.8169789839662716</v>
+        <v>0.7795800959955814</v>
       </c>
       <c r="E4">
-        <v>0.8293702284021112</v>
+        <v>0.7794570202467876</v>
       </c>
       <c r="F4">
-        <v>0.8621816062911558</v>
+        <v>0.779714832078082</v>
       </c>
       <c r="G4">
-        <v>0.881886853220886</v>
+        <v>0.769555123317097</v>
       </c>
       <c r="H4">
-        <v>0.8996709614628317</v>
+        <v>0.7612354783535753</v>
       </c>
       <c r="I4">
-        <v>0.5948544731931754</v>
+        <v>0.5933513001218738</v>
       </c>
       <c r="J4">
-        <v>0.7809587259866595</v>
+        <v>0.7809320167403504</v>
       </c>
       <c r="K4">
-        <v>0.8008987102175091</v>
+        <v>0.7825654228319379</v>
       </c>
       <c r="L4">
-        <v>0.8162044083483014</v>
+        <v>0.7789838285317344</v>
       </c>
       <c r="M4">
-        <v>0.8284878217187182</v>
+        <v>0.7788124083270253</v>
       </c>
       <c r="N4">
-        <v>0.8610738647760084</v>
+        <v>0.778999668112384</v>
       </c>
       <c r="O4">
-        <v>0.880455455668113</v>
+        <v>0.7686587251469784</v>
       </c>
       <c r="P4">
-        <v>0.8982747599567094</v>
+        <v>0.7604981796398728</v>
       </c>
       <c r="Q4">
-        <v>0.6078574899846647</v>
+        <v>0.6063615805154925</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,52 +660,52 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>5.896222145269926E-06</v>
+        <v>5.896163084702305E-06</v>
       </c>
       <c r="C5">
-        <v>5.894488666320627E-06</v>
+        <v>5.863490795557878E-06</v>
       </c>
       <c r="D5">
-        <v>5.837057137310194E-06</v>
+        <v>5.774193546037583E-06</v>
       </c>
       <c r="E5">
-        <v>5.824091943725124E-06</v>
+        <v>5.740227102672573E-06</v>
       </c>
       <c r="F5">
-        <v>5.799503000163287E-06</v>
+        <v>5.661065027958217E-06</v>
       </c>
       <c r="G5">
-        <v>5.669553606302464E-06</v>
+        <v>5.48130691829413E-06</v>
       </c>
       <c r="H5">
-        <v>5.559768109420421E-06</v>
+        <v>5.328118482189455E-06</v>
       </c>
       <c r="I5">
-        <v>4.205039139142282E-06</v>
+        <v>4.202536498846641E-06</v>
       </c>
       <c r="J5">
-        <v>5.94515125304135E-06</v>
+        <v>5.945092989076515E-06</v>
       </c>
       <c r="K5">
-        <v>5.944698841745714E-06</v>
+        <v>5.912792304434832E-06</v>
       </c>
       <c r="L5">
-        <v>5.886071052302794E-06</v>
+        <v>5.821361818335317E-06</v>
       </c>
       <c r="M5">
-        <v>5.873208201376905E-06</v>
+        <v>5.786879853238683E-06</v>
       </c>
       <c r="N5">
-        <v>5.848900170226057E-06</v>
+        <v>5.706392563701091E-06</v>
       </c>
       <c r="O5">
-        <v>5.716325938594417E-06</v>
+        <v>5.522542251278256E-06</v>
       </c>
       <c r="P5">
-        <v>5.606282609451673E-06</v>
+        <v>5.367811635022427E-06</v>
       </c>
       <c r="Q5">
-        <v>4.317715424179175E-06</v>
+        <v>4.315138005378007E-06</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,52 +713,52 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>2.636270776688883E-09</v>
+        <v>2.636256788284794E-09</v>
       </c>
       <c r="C6">
-        <v>2.617813674248555E-09</v>
+        <v>2.607048207138121E-09</v>
       </c>
       <c r="D6">
-        <v>2.412975725411605E-09</v>
+        <v>2.391258290042611E-09</v>
       </c>
       <c r="E6">
-        <v>2.382036108886973E-09</v>
+        <v>2.353084384602636E-09</v>
       </c>
       <c r="F6">
-        <v>2.34092063622192E-09</v>
+        <v>2.293172268081257E-09</v>
       </c>
       <c r="G6">
-        <v>2.214063142650635E-09</v>
+        <v>2.149294918445147E-09</v>
       </c>
       <c r="H6">
-        <v>2.10440866025479E-09</v>
+        <v>2.024880445402413E-09</v>
       </c>
       <c r="I6">
-        <v>9.337860704271932E-09</v>
+        <v>9.33680274402368E-09</v>
       </c>
       <c r="J6">
-        <v>2.650274042761103E-09</v>
+        <v>2.650257489898363E-09</v>
       </c>
       <c r="K6">
-        <v>2.631034766021949E-09</v>
+        <v>2.619212595318045E-09</v>
       </c>
       <c r="L6">
-        <v>2.43165194150563E-09</v>
+        <v>2.407787220335326E-09</v>
       </c>
       <c r="M6">
-        <v>2.401835566895119E-09</v>
+        <v>2.370018017567342E-09</v>
       </c>
       <c r="N6">
-        <v>2.362903290473968E-09</v>
+        <v>2.31042022717265E-09</v>
       </c>
       <c r="O6">
-        <v>2.24627438396742E-09</v>
+        <v>2.1750392576608E-09</v>
       </c>
       <c r="P6">
-        <v>2.140074187674626E-09</v>
+        <v>2.052570639113563E-09</v>
       </c>
       <c r="Q6">
-        <v>9.133046172206025E-09</v>
+        <v>9.131906727588844E-09</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,52 +766,52 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>6.069226543478597E-09</v>
+        <v>6.069149124423031E-09</v>
       </c>
       <c r="C7">
-        <v>6.103280681284104E-09</v>
+        <v>6.026463648274718E-09</v>
       </c>
       <c r="D7">
-        <v>6.129905722682565E-09</v>
+        <v>5.97393993120864E-09</v>
       </c>
       <c r="E7">
-        <v>6.14528054459006E-09</v>
+        <v>5.937145014757813E-09</v>
       </c>
       <c r="F7">
-        <v>6.151398970359824E-09</v>
+        <v>5.807681761443016E-09</v>
       </c>
       <c r="G7">
-        <v>6.185655576698395E-09</v>
+        <v>5.717544394429625E-09</v>
       </c>
       <c r="H7">
-        <v>6.222405367091444E-09</v>
+        <v>5.645596651845844E-09</v>
       </c>
       <c r="I7">
-        <v>2.336012127590285E-09</v>
+        <v>2.329846192180608E-09</v>
       </c>
       <c r="J7">
-        <v>6.020637086559752E-09</v>
+        <v>6.020575265241537E-09</v>
       </c>
       <c r="K7">
-        <v>6.056447991807049E-09</v>
+        <v>5.980631837939844E-09</v>
       </c>
       <c r="L7">
-        <v>6.085081150463285E-09</v>
+        <v>5.931131143831981E-09</v>
       </c>
       <c r="M7">
-        <v>6.100875845593206E-09</v>
+        <v>5.895424858190195E-09</v>
       </c>
       <c r="N7">
-        <v>6.107631196508106E-09</v>
+        <v>5.768336821141138E-09</v>
       </c>
       <c r="O7">
-        <v>6.145191644454703E-09</v>
+        <v>5.683091647404495E-09</v>
       </c>
       <c r="P7">
-        <v>6.186270253965632E-09</v>
+        <v>5.616853756338863E-09</v>
       </c>
       <c r="Q7">
-        <v>2.375207926366346E-09</v>
+        <v>2.369131632050822E-09</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,52 +819,52 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.0002462652409485711</v>
+        <v>0.0002462544254866309</v>
       </c>
       <c r="C8">
-        <v>0.0002469153189000583</v>
+        <v>0.0002441945963201207</v>
       </c>
       <c r="D8">
-        <v>0.0002464223247025725</v>
+        <v>0.0002409074392356827</v>
       </c>
       <c r="E8">
-        <v>0.0002466868873069254</v>
+        <v>0.0002393302996873502</v>
       </c>
       <c r="F8">
-        <v>0.0002462246381291435</v>
+        <v>0.0002340821357742</v>
       </c>
       <c r="G8">
-        <v>0.0002448544143073789</v>
+        <v>0.000228325310807357</v>
       </c>
       <c r="H8">
-        <v>0.0002445552322875971</v>
+        <v>0.0002241936515038715</v>
       </c>
       <c r="I8">
-        <v>0.0002732445788498838</v>
+        <v>0.0002730164565078452</v>
       </c>
       <c r="J8">
-        <v>0.000240874573009135</v>
+        <v>0.0002408643888698364</v>
       </c>
       <c r="K8">
-        <v>0.0002414656735643904</v>
+        <v>0.0002389692613151225</v>
       </c>
       <c r="L8">
-        <v>0.0002408624394412414</v>
+        <v>0.0002358025954909763</v>
       </c>
       <c r="M8">
-        <v>0.0002410429519338874</v>
+        <v>0.0002342935120112245</v>
       </c>
       <c r="N8">
-        <v>0.0002403517724333277</v>
+        <v>0.0002292119651600972</v>
       </c>
       <c r="O8">
-        <v>0.0002388316762494919</v>
+        <v>0.0002236681153342646</v>
       </c>
       <c r="P8">
-        <v>0.0002384692449048844</v>
+        <v>0.0002197900971684145</v>
       </c>
       <c r="Q8">
-        <v>0.0002719295669636318</v>
+        <v>0.0002717198381612078</v>
       </c>
     </row>
   </sheetData>
